--- a/ConFin.Web/Reports/Lancamento/Lancamento_Mensal.xlsx
+++ b/ConFin.Web/Reports/Lancamento/Lancamento_Mensal.xlsx
@@ -7,50 +7,72 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Orçamento mensal simples" sheetId="1" r:id="rId1"/>
+    <sheet name="Resumo" sheetId="1" r:id="rId1"/>
+    <sheet name="Receitas" sheetId="2" r:id="rId2"/>
+    <sheet name="Despesas" sheetId="3" r:id="rId3"/>
+    <sheet name="Totais" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="Despesa_Categoria" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="TotalDespesasMensais">SUM(tblDespesas[Valor])</definedName>
-    <definedName name="TotalRendaMensal">SUM(tblRenda[Valor])</definedName>
+    <definedName name="TotalDespesasMensais">SUM(#REF!)</definedName>
+    <definedName name="TotalRendaMensal">SUM(tblRenda[DESCRIÇÃO])</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
-  <si>
-    <t>Item</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Valor</t>
-  </si>
-  <si>
-    <t>Renda 1</t>
-  </si>
-  <si>
-    <t>Total de despesas mensais</t>
-  </si>
-  <si>
-    <t>Renda mensal total</t>
-  </si>
-  <si>
-    <t>DESPESAS MENSAIS</t>
   </si>
   <si>
     <t>PORCENTAGEM DA RENDA GASTA</t>
   </si>
   <si>
-    <t>RENDA MENSAL</t>
-  </si>
-  <si>
     <t>RESUMO</t>
   </si>
   <si>
-    <t>Aluguel/hipoteca</t>
+    <t>SALDO</t>
   </si>
   <si>
-    <t>SALDO</t>
+    <t>RECEITAS MENSAL</t>
+  </si>
+  <si>
+    <t>DESPESAS MENSAL</t>
+  </si>
+  <si>
+    <t>TOTAL MENSAL</t>
+  </si>
+  <si>
+    <t>Renda total</t>
+  </si>
+  <si>
+    <t>Total de despesas</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>CONTA</t>
+  </si>
+  <si>
+    <t>CATEGORIA</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>NENHUM REGISTRO</t>
+  </si>
+  <si>
+    <t>Nenhum registro</t>
   </si>
 </sst>
 </file>
@@ -60,7 +82,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
@@ -121,8 +143,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +201,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,7 +286,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,33 +299,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
@@ -281,23 +323,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyBorder="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4">
+    <xf numFmtId="14" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="14" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -308,26 +412,97 @@
     <cellStyle name="Título 2" xfId="4" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="5" builtinId="18" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="18">
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thick">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color theme="3" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Century Gothic"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -371,14 +546,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Simple Monthly Budget" defaultPivotStyle="PivotStyleMedium13">
     <tableStyle name="Simple Monthly Budget" pivot="0" count="3">
-      <tableStyleElement type="wholeTable" dxfId="8"/>
-      <tableStyleElement type="headerRow" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="secondRowStripe" dxfId="15"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFACF2B4"/>
+      <color rgb="FF8585E1"/>
     </mruColors>
   </colors>
   <extLst>
@@ -406,7 +582,67 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Receita</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" baseline="0"/>
+              <a:t> / Despesa</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -414,22 +650,18 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>DadosGráfico</c:v>
-          </c:tx>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ACF2B4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ACF2B4"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
@@ -441,10 +673,13 @@
                   <a:lumOff val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -453,17 +688,22 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="95000"/>
-                        <a:lumOff val="5000"/>
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="pt-BR"/>
@@ -480,32 +720,49 @@
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strLit>
-              <c:ptCount val="2"/>
-              <c:pt idx="0">
-                <c:v>Renda</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>Despesas</c:v>
-              </c:pt>
-            </c:strLit>
+            <c:strRef>
+              <c:f>Resumo!$B$6:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Renda total</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total de despesas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Orçamento mensal simples'!$H$6:$H$7</c:f>
+              <c:f>Resumo!$D$6:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>"R$"\ #,##0.00</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2500</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>800</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,170 +777,1778 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="37"/>
-        <c:axId val="-986999920"/>
-        <c:axId val="-1016539408"/>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1577876400"/>
+        <c:axId val="1577877488"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="pt-BR"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Resumo!$B$6:$B$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>Renda total</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Total de despesas</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Resumo!$C$6:$C$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-986999920"/>
+        <c:axId val="1577876400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="95000"/>
-                    <a:lumOff val="5000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1016539408"/>
+        <c:crossAx val="1577877488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="80"/>
+        <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1016539408"/>
+        <c:axId val="1577877488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:numFmt formatCode="&quot;R$&quot;\ #,##0" sourceLinked="0"/>
-        <c:majorTickMark val="in"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;R$&quot;\ #,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
+          <a:noFill/>
           <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
-                    <a:lumMod val="95000"/>
-                    <a:lumOff val="5000"/>
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-986999920"/>
+        <c:crossAx val="1577876400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:minorUnit val="500"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:noFill/>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:defRPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="pt-BR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0"/>
+              <a:t>Despesas por categoria</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>DespesaCategoria</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Despesa_Categoria!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Nenhum registro</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nenhum registro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Despesa_Categoria!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>"R$"\ #,##0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="RendaeDespesas" descr="Column chart comparing Total Monthly Income to Total Montly Expenses" title="Income and Expenses"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -732,7 +2597,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="457200" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
           <a:r>
             <a:rPr lang="en-US" sz="3200" cap="all">
               <a:solidFill>
@@ -743,7 +2608,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Orçamento mensal simples</a:t>
+            <a:t>Relatório mensal </a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="3200">
             <a:effectLst/>
@@ -757,7 +2622,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:colOff>1295400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
@@ -774,8 +2639,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7143750" y="57150"/>
-          <a:ext cx="685800" cy="1051560"/>
+          <a:off x="7686675" y="57150"/>
+          <a:ext cx="857250" cy="927735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -799,7 +2664,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" rIns="0" bIns="91440" rtlCol="0" anchor="b"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" rIns="0" bIns="91440" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
@@ -810,7 +2675,343 @@
               </a:solidFill>
               <a:latin typeface="+mj-lt"/>
             </a:rPr>
-            <a:t>2014</a:t>
+            <a:t>MesAno</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>195262</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>204787</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Título" descr="Simple Budget" title="Template Title"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="114301"/>
+          <a:ext cx="9315449" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1003">
+          <a:schemeClr val="dk2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="457200" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" cap="all">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Relatório mensal </a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="3200">
+            <a:effectLst/>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1914525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Ano do Orçamento" descr="Holds budget year, such as 2014." title="Budget Year"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8058150" y="28575"/>
+          <a:ext cx="857250" cy="927735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" rIns="0" bIns="91440" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>MesAno</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Título" descr="Simple Budget" title="Template Title"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="114300"/>
+          <a:ext cx="9296400" cy="933449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1003">
+          <a:schemeClr val="dk2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="457200" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3200" cap="all">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Relatório mensal </a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="3200">
+            <a:effectLst/>
+            <a:latin typeface="+mj-lt"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1914525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Ano do Orçamento" descr="Holds budget year, such as 2014." title="Budget Year"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8058150" y="28575"/>
+          <a:ext cx="857250" cy="927735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" rIns="0" bIns="91440" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>MesAno</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -821,11 +3022,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblIncome" displayName="tblRenda" ref="B10:C11">
-  <autoFilter ref="B10:C11"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Item" totalsRowLabel="Total" dataDxfId="5"/>
-    <tableColumn id="2" name="Valor" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblRenda" displayName="tblRenda" ref="B9:F11" headerRowDxfId="14">
+  <autoFilter ref="B9:F11"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="DATA" totalsRowLabel="Total" dataDxfId="13"/>
+    <tableColumn id="2" name="DESCRIÇÃO" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="3" name="VALOR" dataDxfId="10"/>
+    <tableColumn id="4" name="CONTA" dataDxfId="9"/>
+    <tableColumn id="5" name="CATEGORIA" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="Simple Monthly Budget" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -837,18 +3041,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblExpenses" displayName="tblDespesas" ref="B14:C15">
-  <autoFilter ref="B14:C15"/>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Item" totalsRowLabel="Total" dataDxfId="2"/>
-    <tableColumn id="2" name="Valor" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela3" displayName="Tabela3" ref="B9:F11" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
+  <autoFilter ref="B9:F11"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="DATA" dataDxfId="4"/>
+    <tableColumn id="2" name="DESCRIÇÃO" dataDxfId="3"/>
+    <tableColumn id="3" name="VALOR" dataDxfId="2"/>
+    <tableColumn id="4" name="CONTA" dataDxfId="1"/>
+    <tableColumn id="5" name="CATEGORIA" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Simple Monthly Budget" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altText="Despesas mensais" altTextSummary="Lista de cada despesa mensal e valor de cada despesa."/>
-    </ext>
-  </extLst>
 </table>
 </file>
 
@@ -1093,138 +3295,105 @@
     <tabColor theme="3"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
     <col min="5" max="5" width="2.85546875" customWidth="1"/>
     <col min="6" max="7" width="25.5703125" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
     <col min="9" max="9" width="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16"/>
+    <row r="1" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="F4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
+      <c r="B4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="10">
+        <f>D6-D7</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="21">
-        <f>TotalDespesasMensais</f>
-        <v>800</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="10">
-        <f>TotalDespesasMensais/TotalRendaMensal</f>
-        <v>0.32</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="13">
-        <f>TotalRendaMensal</f>
-        <v>2500</v>
-      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="8">
+        <f>Totais!A1</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="14">
-        <f>TotalDespesasMensais</f>
-        <v>800</v>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="9">
+        <f>Totais!A2</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="27">
+        <f>D7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="6" t="e">
+        <f>D7/D6</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="15">
-        <f>TotalRendaMensal-TotalDespesasMensais</f>
-        <v>1700</v>
-      </c>
+    <row r="20" spans="6:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>1</v>
-      </c>
+    <row r="21" spans="6:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H21" s="13"/>
     </row>
-    <row r="11" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="12">
-        <v>2500</v>
-      </c>
+    <row r="22" spans="6:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H22" s="13"/>
     </row>
-    <row r="13" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="17"/>
-    </row>
-    <row r="14" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="12">
-        <v>800</v>
-      </c>
+    <row r="23" spans="6:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F4:H4"/>
+  <mergeCells count="3">
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F6:H6"/>
   </mergeCells>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="F7">
+    <cfRule type="dataBar" priority="10">
       <dataBar showValue="0">
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="TotalRendaMensal"/>
@@ -1237,14 +3406,110 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F7:G7">
+    <cfRule type="dataBar" priority="1">
+      <dataBar showValue="0">
+        <cfvo type="min"/>
+        <cfvo type="num" val="$D$6"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D37AFC0D-B2B4-4FF8-B65A-517B346FEA52}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar showValue="0">
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A6CD69E0-E5F3-424C-AC2B-C73DE140CD37}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="$D$6"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{22D75CEB-BF34-424A-8080-F4852F61A948}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="$D$6"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{65B44AF7-0A19-4FE7-8CDB-A0C7331B5EAD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="3" tint="0.39997558519241921"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BBB35E0D-B9C0-4A1B-B67A-EF7FD610066D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="$D$6"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{22FBC34E-D165-4489-95DC-DE09ECD4552E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="$D$6"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E557F527-1EC5-4B14-9BD9-84426FBE22E4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:G7">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D0033ADC-B01F-4211-9FC2-81009FE6D723}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="2">
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
-  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -1262,11 +3527,387 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B6</xm:sqref>
+          <xm:sqref>F7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D37AFC0D-B2B4-4FF8-B65A-517B346FEA52}">
+            <x14:dataBar minLength="0" maxLength="100" direction="leftToRight">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>$D$6</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{A6CD69E0-E5F3-424C-AC2B-C73DE140CD37}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{22D75CEB-BF34-424A-8080-F4852F61A948}">
+            <x14:dataBar minLength="0" maxLength="100" direction="leftToRight">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>$D$6</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{65B44AF7-0A19-4FE7-8CDB-A0C7331B5EAD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>$D$6</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{BBB35E0D-B9C0-4A1B-B67A-EF7FD610066D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{22FBC34E-D165-4489-95DC-DE09ECD4552E}">
+            <x14:dataBar minLength="0" maxLength="100">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>$D$6</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{E557F527-1EC5-4B14-9BD9-84426FBE22E4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="num">
+                <xm:f>$D$6</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F7:G7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D0033ADC-B01F-4211-9FC2-81009FE6D723}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F7:G7</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFACF2B4"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B7:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:6" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="2:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33">
+        <f>SUM(D10:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="67" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4" tint="0.59999389629810485"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B7:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="35.85546875" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:6" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+    </row>
+    <row r="8" spans="2:6" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="2:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+    </row>
+    <row r="13" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36">
+        <f>SUM(D10:D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f>SUM(tblRenda[VALOR])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>SUM(Tabela3[VALOR])</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="QuO9k/WLC8J4j3OMFd7VgLJqmA0jS9C3Ie8B0ea6GDkGF8CCtGELJTc/kZtjQHj7O2hbY7fMlj/wMlGqGCKgbA==" saltValue="bndvpEDqI9ndSkD3+YsTjA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="Cm3C44nkAy/8r4ulDUsDpURS1//hB1oE+k7uTgxJWZNxFCGtNhHiY42ItZxePGYkfquk/+A87dN+n4qDOTyvsQ==" saltValue="wELVl19AeeYk4JIeisdBvg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
